--- a/Static/web/zmingC.xlsx
+++ b/Static/web/zmingC.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="2320" yWindow="0" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="abc" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -42,6 +42,38 @@
   </si>
   <si>
     <t>school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>十五中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>十四中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13367257337</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13175674600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -49,7 +81,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -103,6 +135,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -133,7 +170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -164,6 +201,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -503,9 +543,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -515,42 +553,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2021.17</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6">
+        <v>13956788660</v>
+      </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
+      <c r="A3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2021.17</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="6">
+        <v>13296873737</v>
+      </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>

--- a/Static/web/zmingC.xlsx
+++ b/Static/web/zmingC.xlsx
@@ -69,11 +69,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13367257337</t>
+    <t>13367250000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>13175674600</t>
+    <t>13175670000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,7 +543,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -589,7 +591,7 @@
         <v>12</v>
       </c>
       <c r="F2" s="6">
-        <v>13956788660</v>
+        <v>13956780000</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -611,7 +613,7 @@
         <v>13</v>
       </c>
       <c r="F3" s="6">
-        <v>13296873737</v>
+        <v>13296870000</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
